--- a/BPA and Alternatives Data - UPXome 2023/QC/QC Comparisons.xlsx
+++ b/BPA and Alternatives Data - UPXome 2023/QC/QC Comparisons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\git_test\MolToxLab\BPA and Alternatives Data - UPXome 2023\QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AE435-1BC8-4018-A813-3D0E48BD8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A99B24-907C-432B-B15A-0B5251A72835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1275" windowWidth="24780" windowHeight="12480" xr2:uid="{DD01D7E6-CC44-4FAE-B7CD-5DF6D95C1437}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DD01D7E6-CC44-4FAE-B7CD-5DF6D95C1437}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
   <si>
     <t>chemical</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -513,8 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D785510-ED52-4D52-9967-BB45C0FCA84E}">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
+      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,15 +961,15 @@
         <v>43.382764648108399</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:O3" si="0">(I3/E3)*100</f>
+        <f>(I3/E3)*100</f>
         <v>99.955830388692576</v>
       </c>
       <c r="N3" s="15">
-        <f t="shared" si="0"/>
+        <f>(J3/F3)*100</f>
         <v>99.926746634923546</v>
       </c>
       <c r="O3" s="16">
-        <f t="shared" si="0"/>
+        <f>(K3/G3)*100</f>
         <v>898.7341772151899</v>
       </c>
     </row>
@@ -1007,19 +1008,19 @@
         <v>2564</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L67" si="1">(H4/D4)*100</f>
+        <f>(H4/D4)*100</f>
         <v>49.450261621569247</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M4:M67" si="2">(I4/E4)*100</f>
+        <f>(I4/E4)*100</f>
         <v>99.950629474203907</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N67" si="3">(J4/F4)*100</f>
+        <f t="shared" ref="N4:N67" si="0">(J4/F4)*100</f>
         <v>99.89982469321312</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O67" si="4">(K4/G4)*100</f>
+        <f t="shared" ref="O4:O67" si="1">(K4/G4)*100</f>
         <v>481.95488721804509</v>
       </c>
     </row>
@@ -1058,19 +1059,19 @@
         <v>2636</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="1"/>
+        <f>(H5/D5)*100</f>
         <v>53.133325522760678</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="2"/>
+        <f>(I5/E5)*100</f>
         <v>99.955869373345095</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.925470467672824</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>398.18731117824774</v>
       </c>
     </row>
@@ -1109,19 +1110,19 @@
         <v>2444</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="1"/>
+        <f>(H6/D6)*100</f>
         <v>50.928014799365542</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="2"/>
+        <f>(I6/E6)*100</f>
         <v>99.956761431196625</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.930957107102785</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>475.48638132295719</v>
       </c>
     </row>
@@ -1160,19 +1161,19 @@
         <v>2508</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="1"/>
+        <f>(H7/D7)*100</f>
         <v>53.33669740764784</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="2"/>
+        <f>(I7/E7)*100</f>
         <v>99.955523433590926</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.926511115193833</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>388.23529411764707</v>
       </c>
     </row>
@@ -1211,19 +1212,19 @@
         <v>2528</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="1"/>
+        <f>(H8/D8)*100</f>
         <v>49.258465653765519</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="2"/>
+        <f>(I8/E8)*100</f>
         <v>99.954746011992299</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.922600619195052</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>506.61322645290579</v>
       </c>
     </row>
@@ -1262,19 +1263,19 @@
         <v>1697</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="1"/>
+        <f>(H9/D9)*100</f>
         <v>48.8304946516649</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="2"/>
+        <f>(I9/E9)*100</f>
         <v>99.9519375187744</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.907073992333608</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>633.20895522388059</v>
       </c>
     </row>
@@ -1313,19 +1314,19 @@
         <v>2001</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="1"/>
+        <f>(H10/D10)*100</f>
         <v>49.235524463217182</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="2"/>
+        <f>(I10/E10)*100</f>
         <v>99.900212049395037</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.445983379501385</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>426.6524520255864</v>
       </c>
     </row>
@@ -1364,19 +1365,19 @@
         <v>2249</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="1"/>
+        <f>(H11/D11)*100</f>
         <v>52.598690896875922</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" si="2"/>
+        <f>(I11/E11)*100</f>
         <v>99.954421148587059</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.920893898941955</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>440.98039215686276</v>
       </c>
     </row>
@@ -1415,19 +1416,19 @@
         <v>2199</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="1"/>
+        <f>(H12/D12)*100</f>
         <v>46.707600836789368</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="2"/>
+        <f>(I12/E12)*100</f>
         <v>99.955446647360219</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.92565746677819</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>674.53987730061351</v>
       </c>
     </row>
@@ -1466,19 +1467,19 @@
         <v>2287</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
+        <f>(H13/D13)*100</f>
         <v>52.69857732175582</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="2"/>
+        <f>(I13/E13)*100</f>
         <v>99.95598349381018</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.927457381211454</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>439.80769230769232</v>
       </c>
     </row>
@@ -1517,19 +1518,19 @@
         <v>1632</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="1"/>
+        <f>(H14/D14)*100</f>
         <v>45.806337117869603</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="2"/>
+        <f>(I14/E14)*100</f>
         <v>99.955705664138193</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.92517770295548</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>965.68047337278108</v>
       </c>
     </row>
@@ -1568,19 +1569,19 @@
         <v>2274</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="1"/>
+        <f>(H15/D15)*100</f>
         <v>45.327609174299262</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="2"/>
+        <f>(I15/E15)*100</f>
         <v>99.947226070321264</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.878363995742731</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>687.00906344410873</v>
       </c>
     </row>
@@ -1619,19 +1620,19 @@
         <v>2470</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="1"/>
+        <f>(H16/D16)*100</f>
         <v>50.198878452823479</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="2"/>
+        <f>(I16/E16)*100</f>
         <v>99.954568686467155</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.921360463973258</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>482.421875</v>
       </c>
     </row>
@@ -1670,19 +1671,19 @@
         <v>2125</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="1"/>
+        <f>(H17/D17)*100</f>
         <v>47.652429604849623</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="2"/>
+        <f>(I17/E17)*100</f>
         <v>99.950659923522878</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.898695707230587</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>640.06024096385545</v>
       </c>
     </row>
@@ -1721,19 +1722,19 @@
         <v>2563</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="1"/>
+        <f>(H18/D18)*100</f>
         <v>46.588919787515998</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="2"/>
+        <f>(I18/E18)*100</f>
         <v>99.956243504895255</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.927947401603163</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>622.08737864077671</v>
       </c>
     </row>
@@ -1772,19 +1773,19 @@
         <v>2552</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="1"/>
+        <f>(H19/D19)*100</f>
         <v>56.695843548586701</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="2"/>
+        <f>(I19/E19)*100</f>
         <v>99.958326821899263</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.936320942450052</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>337.12021136063413</v>
       </c>
     </row>
@@ -1823,19 +1824,19 @@
         <v>2255</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="1"/>
+        <f>(H20/D20)*100</f>
         <v>50.788645432419131</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" si="2"/>
+        <f>(I20/E20)*100</f>
         <v>99.956145159521981</v>
       </c>
       <c r="N20" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.928628780444285</v>
       </c>
       <c r="O20" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>516.01830663615567</v>
       </c>
     </row>
@@ -1874,19 +1875,19 @@
         <v>2964</v>
       </c>
       <c r="L21" s="14">
-        <f t="shared" si="1"/>
+        <f>(H21/D21)*100</f>
         <v>55.120680592337642</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="2"/>
+        <f>(I21/E21)*100</f>
         <v>99.945596735804145</v>
       </c>
       <c r="N21" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.84825493171472</v>
       </c>
       <c r="O21" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>333.03370786516854</v>
       </c>
     </row>
@@ -1925,19 +1926,19 @@
         <v>2888</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="1"/>
+        <f>(H22/D22)*100</f>
         <v>55.024011502516181</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="2"/>
+        <f>(I22/E22)*100</f>
         <v>99.947389188478226</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.864268747879208</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>352.62515262515262</v>
       </c>
     </row>
@@ -1976,19 +1977,19 @@
         <v>2822</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="1"/>
+        <f>(H23/D23)*100</f>
         <v>60.590465969698826</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="2"/>
+        <f>(I23/E23)*100</f>
         <v>99.945284180288624</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.84813971146545</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>269.53199617956062</v>
       </c>
     </row>
@@ -2027,19 +2028,19 @@
         <v>3037</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="1"/>
+        <f>(H24/D24)*100</f>
         <v>55.98486402158489</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="2"/>
+        <f>(I24/E24)*100</f>
         <v>99.95661840464183</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.924292609065958</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>342.39007891770012</v>
       </c>
     </row>
@@ -2078,19 +2079,19 @@
         <v>3115</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="1"/>
+        <f>(H25/D25)*100</f>
         <v>50.448537656300921</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="2"/>
+        <f>(I25/E25)*100</f>
         <v>99.959685547268691</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.937883376038513</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>492.87974683544303</v>
       </c>
     </row>
@@ -2129,19 +2130,19 @@
         <v>3202</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="1"/>
+        <f>(H26/D26)*100</f>
         <v>54.472270665316181</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="2"/>
+        <f>(I26/E26)*100</f>
         <v>99.96016531394713</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.941885805608024</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>363.4506242905789</v>
       </c>
     </row>
@@ -2180,19 +2181,19 @@
         <v>3105</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="1"/>
+        <f>(H27/D27)*100</f>
         <v>54.48275933990756</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="2"/>
+        <f>(I27/E27)*100</f>
         <v>99.957480733457345</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.928456447862629</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>365.29411764705884</v>
       </c>
     </row>
@@ -2231,19 +2232,19 @@
         <v>3155</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="1"/>
+        <f>(H28/D28)*100</f>
         <v>54.694241928284484</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="2"/>
+        <f>(I28/E28)*100</f>
         <v>99.958307275380449</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.932863376972136</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>363.89850057670128</v>
       </c>
     </row>
@@ -2282,19 +2283,19 @@
         <v>3023</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="1"/>
+        <f>(H29/D29)*100</f>
         <v>61.305883236907356</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="2"/>
+        <f>(I29/E29)*100</f>
         <v>99.958372359246539</v>
       </c>
       <c r="N29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.934036939313984</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>261.50519031141869</v>
       </c>
     </row>
@@ -2333,19 +2334,19 @@
         <v>3102</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="1"/>
+        <f>(H30/D30)*100</f>
         <v>59.1331997698707</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="2"/>
+        <f>(I30/E30)*100</f>
         <v>99.959803034870859</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.939200486396103</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>283.80603842634946</v>
       </c>
     </row>
@@ -2384,19 +2385,19 @@
         <v>2732</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="1"/>
+        <f>(H31/D31)*100</f>
         <v>55.36823000327383</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="2"/>
+        <f>(I31/E31)*100</f>
         <v>99.951468090269358</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.895615866388312</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>367.2043010752688</v>
       </c>
     </row>
@@ -2435,19 +2436,19 @@
         <v>2809</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="1"/>
+        <f>(H32/D32)*100</f>
         <v>52.588788255438992</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="2"/>
+        <f>(I32/E32)*100</f>
         <v>99.95651464912757</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.923180334165551</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>465.06622516556291</v>
       </c>
     </row>
@@ -2486,19 +2487,19 @@
         <v>2992</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="1"/>
+        <f>(H33/D33)*100</f>
         <v>67.759690977419993</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="2"/>
+        <f>(I33/E33)*100</f>
         <v>99.953281943471154</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.905660377358487</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>201.34589502018844</v>
       </c>
     </row>
@@ -2537,19 +2538,19 @@
         <v>2915</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="1"/>
+        <f>(H34/D34)*100</f>
         <v>59.206925074657732</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" si="2"/>
+        <f>(I34/E34)*100</f>
         <v>99.954756249293069</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.91503823279524</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>288.89990089197227</v>
       </c>
     </row>
@@ -2588,19 +2589,19 @@
         <v>3042</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="1"/>
+        <f>(H35/D35)*100</f>
         <v>58.103313207059756</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="2"/>
+        <f>(I35/E35)*100</f>
         <v>99.958165559797109</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.932942162615262</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>307.58341759352879</v>
       </c>
     </row>
@@ -2639,19 +2640,19 @@
         <v>2885</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="1"/>
+        <f>(H36/D36)*100</f>
         <v>57.501459091898042</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="2"/>
+        <f>(I36/E36)*100</f>
         <v>99.956396141058477</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.924385633270319</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>317.73127753303964</v>
       </c>
     </row>
@@ -2690,19 +2691,19 @@
         <v>2904</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="1"/>
+        <f>(H37/D37)*100</f>
         <v>57.306358609460872</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="2"/>
+        <f>(I37/E37)*100</f>
         <v>99.954694755917998</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.916344243438246</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>313.26860841423951</v>
       </c>
     </row>
@@ -2741,19 +2742,19 @@
         <v>2861</v>
       </c>
       <c r="L38" s="22">
-        <f t="shared" si="1"/>
+        <f>(H38/D38)*100</f>
         <v>58.893167558743301</v>
       </c>
       <c r="M38" s="23">
-        <f t="shared" si="2"/>
+        <f>(I38/E38)*100</f>
         <v>99.957730106731475</v>
       </c>
       <c r="N38" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.930741927105885</v>
       </c>
       <c r="O38" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>306.31691648822266</v>
       </c>
     </row>
@@ -2792,19 +2793,19 @@
         <v>2963</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="1"/>
+        <f>(H39/D39)*100</f>
         <v>58.072976342016766</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="2"/>
+        <f>(I39/E39)*100</f>
         <v>99.955516014234874</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.923091713132095</v>
       </c>
       <c r="O39" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>289.63831867057672</v>
       </c>
     </row>
@@ -2843,19 +2844,19 @@
         <v>2586</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="1"/>
+        <f>(H40/D40)*100</f>
         <v>54.436070229020729</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="2"/>
+        <f>(I40/E40)*100</f>
         <v>99.955030916245079</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.921836834391797</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>397.84615384615381</v>
       </c>
     </row>
@@ -2894,19 +2895,19 @@
         <v>2175</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="1"/>
+        <f>(H41/D41)*100</f>
         <v>52.850930238017234</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="2"/>
+        <f>(I41/E41)*100</f>
         <v>99.954467842914056</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.918208772109196</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>522.83653846153845</v>
       </c>
     </row>
@@ -2945,19 +2946,19 @@
         <v>2681</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="1"/>
+        <f>(H42/D42)*100</f>
         <v>41.101439198142295</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="2"/>
+        <f>(I42/E42)*100</f>
         <v>99.95262908574135</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.90936898153393</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>944.01408450704218</v>
       </c>
     </row>
@@ -2996,19 +2997,19 @@
         <v>2759</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="1"/>
+        <f>(H43/D43)*100</f>
         <v>55.05570347012538</v>
       </c>
       <c r="M43" s="7">
-        <f t="shared" si="2"/>
+        <f>(I43/E43)*100</f>
         <v>99.950702489524275</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.897632757517599</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>348.79898862199747</v>
       </c>
     </row>
@@ -3047,19 +3048,19 @@
         <v>2832</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="1"/>
+        <f>(H44/D44)*100</f>
         <v>49.887238769816747</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="2"/>
+        <f>(I44/E44)*100</f>
         <v>99.95350188898577</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.912587412587413</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>463.50245499181665</v>
       </c>
     </row>
@@ -3098,19 +3099,19 @@
         <v>2678</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="1"/>
+        <f>(H45/D45)*100</f>
         <v>54.765576028221474</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="2"/>
+        <f>(I45/E45)*100</f>
         <v>99.951949066009973</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.90699837247152</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>353.76486129458391</v>
       </c>
     </row>
@@ -3149,19 +3150,19 @@
         <v>2577</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="1"/>
+        <f>(H46/D46)*100</f>
         <v>52.850280211760357</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="2"/>
+        <f>(I46/E46)*100</f>
         <v>99.951001408709487</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.902224395013434</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>402.65625</v>
       </c>
     </row>
@@ -3200,19 +3201,19 @@
         <v>2512</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="1"/>
+        <f>(H47/D47)*100</f>
         <v>47.77759535178572</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="2"/>
+        <f>(I47/E47)*100</f>
         <v>99.953682260305698</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.91304347826086</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>617.19901719901725</v>
       </c>
     </row>
@@ -3251,19 +3252,19 @@
         <v>2772</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="1"/>
+        <f>(H48/D48)*100</f>
         <v>58.581253511835193</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="2"/>
+        <f>(I48/E48)*100</f>
         <v>99.956142755331399</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.92731897883165</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>287.85046728971963</v>
       </c>
     </row>
@@ -3302,19 +3303,19 @@
         <v>1058</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="1"/>
+        <f>(H49/D49)*100</f>
         <v>58.217561578893125</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="2"/>
+        <f>(I49/E49)*100</f>
         <v>99.955700758624516</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.921752738654149</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>734.72222222222229</v>
       </c>
     </row>
@@ -3353,19 +3354,19 @@
         <v>2428</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="1"/>
+        <f>(H50/D50)*100</f>
         <v>53.449752700947748</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="2"/>
+        <f>(I50/E50)*100</f>
         <v>99.946073474890468</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.873357606458754</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>408.75420875420872</v>
       </c>
     </row>
@@ -3404,19 +3405,19 @@
         <v>2480</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="1"/>
+        <f>(H51/D51)*100</f>
         <v>58.326661804567358</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="2"/>
+        <f>(I51/E51)*100</f>
         <v>99.946836788942051</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.879099289708336</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>299.15560916767186</v>
       </c>
     </row>
@@ -3455,19 +3456,19 @@
         <v>2609</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="1"/>
+        <f>(H52/D52)*100</f>
         <v>60.079782944853953</v>
       </c>
       <c r="M52" s="7">
-        <f t="shared" si="2"/>
+        <f>(I52/E52)*100</f>
         <v>99.956571304489444</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.92905914693624</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>289.56714761376247</v>
       </c>
     </row>
@@ -3506,19 +3507,19 @@
         <v>2659</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="1"/>
+        <f>(H53/D53)*100</f>
         <v>54.377222484040956</v>
       </c>
       <c r="M53" s="7">
-        <f t="shared" si="2"/>
+        <f>(I53/E53)*100</f>
         <v>99.952891296667062</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.912635142513935</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>361.76870748299319</v>
       </c>
     </row>
@@ -3557,19 +3558,19 @@
         <v>2585</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="1"/>
+        <f>(H54/D54)*100</f>
         <v>52.170459881434525</v>
       </c>
       <c r="M54" s="7">
-        <f t="shared" si="2"/>
+        <f>(I54/E54)*100</f>
         <v>99.955998019910894</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.926260484837314</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>441.88034188034192</v>
       </c>
     </row>
@@ -3608,19 +3609,19 @@
         <v>2577</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="1"/>
+        <f>(H55/D55)*100</f>
         <v>51.715218205876866</v>
       </c>
       <c r="M55" s="7">
-        <f t="shared" si="2"/>
+        <f>(I55/E55)*100</f>
         <v>99.958315964985417</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.936376650230628</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>441.26712328767121</v>
       </c>
     </row>
@@ -3659,19 +3660,19 @@
         <v>2638</v>
       </c>
       <c r="L56" s="22">
-        <f t="shared" si="1"/>
+        <f>(H56/D56)*100</f>
         <v>54.41015764545525</v>
       </c>
       <c r="M56" s="23">
-        <f t="shared" si="2"/>
+        <f>(I56/E56)*100</f>
         <v>99.953366365491121</v>
       </c>
       <c r="N56" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.913119026933103</v>
       </c>
       <c r="O56" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>363.3608815426997</v>
       </c>
     </row>
@@ -3710,19 +3711,19 @@
         <v>3107</v>
       </c>
       <c r="L57" s="14">
-        <f t="shared" si="1"/>
+        <f>(H57/D57)*100</f>
         <v>56.956898196386909</v>
       </c>
       <c r="M57" s="15">
-        <f t="shared" si="2"/>
+        <f>(I57/E57)*100</f>
         <v>99.947787495105075</v>
       </c>
       <c r="N57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.872224884203803</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>284.52380952380952</v>
       </c>
     </row>
@@ -3761,19 +3762,19 @@
         <v>3104</v>
       </c>
       <c r="L58" s="6">
-        <f t="shared" si="1"/>
+        <f>(H58/D58)*100</f>
         <v>57.565420171347995</v>
       </c>
       <c r="M58" s="7">
-        <f t="shared" si="2"/>
+        <f>(I58/E58)*100</f>
         <v>99.960573653343843</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.941712204007288</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>310.08991008991006</v>
       </c>
     </row>
@@ -3812,19 +3813,19 @@
         <v>3196</v>
       </c>
       <c r="L59" s="6">
-        <f t="shared" si="1"/>
+        <f>(H59/D59)*100</f>
         <v>55.294281481720688</v>
       </c>
       <c r="M59" s="7">
-        <f t="shared" si="2"/>
+        <f>(I59/E59)*100</f>
         <v>99.957983193277315</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.930717935394469</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>335.01048218029348</v>
       </c>
     </row>
@@ -3863,19 +3864,19 @@
         <v>3147</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="1"/>
+        <f>(H60/D60)*100</f>
         <v>51.924630089938915</v>
       </c>
       <c r="M60" s="7">
-        <f t="shared" si="2"/>
+        <f>(I60/E60)*100</f>
         <v>99.956658359518912</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.924606540382626</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>408.17120622568092</v>
       </c>
     </row>
@@ -3914,19 +3915,19 @@
         <v>3212</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="1"/>
+        <f>(H61/D61)*100</f>
         <v>57.814149461689269</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" si="2"/>
+        <f>(I61/E61)*100</f>
         <v>99.958504071787956</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.934383202099738</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
     </row>
@@ -3965,19 +3966,19 @@
         <v>2895</v>
       </c>
       <c r="L62" s="6">
-        <f t="shared" si="1"/>
+        <f>(H62/D62)*100</f>
         <v>56.663767526676935</v>
       </c>
       <c r="M62" s="7">
-        <f t="shared" si="2"/>
+        <f>(I62/E62)*100</f>
         <v>99.95882019869255</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.936315873268583</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>334.29561200923786</v>
       </c>
     </row>
@@ -4016,19 +4017,19 @@
         <v>3192</v>
       </c>
       <c r="L63" s="6">
-        <f t="shared" si="1"/>
+        <f>(H63/D63)*100</f>
         <v>57.674569165492748</v>
       </c>
       <c r="M63" s="7">
-        <f t="shared" si="2"/>
+        <f>(I63/E63)*100</f>
         <v>99.957676436355953</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.930252833478633</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>287.0503597122302</v>
       </c>
     </row>
@@ -4067,19 +4068,19 @@
         <v>3106</v>
       </c>
       <c r="L64" s="6">
-        <f t="shared" si="1"/>
+        <f>(H64/D64)*100</f>
         <v>59.124202628295841</v>
       </c>
       <c r="M64" s="7">
-        <f t="shared" si="2"/>
+        <f>(I64/E64)*100</f>
         <v>99.957419629550785</v>
       </c>
       <c r="N64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.928812956041995</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>277.56925826630925</v>
       </c>
     </row>
@@ -4118,19 +4119,19 @@
         <v>3162</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="1"/>
+        <f>(H65/D65)*100</f>
         <v>57.391899770467433</v>
       </c>
       <c r="M65" s="7">
-        <f t="shared" si="2"/>
+        <f>(I65/E65)*100</f>
         <v>99.958652057060164</v>
       </c>
       <c r="N65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.93293654120211</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>302.29445506692161</v>
       </c>
     </row>
@@ -4169,19 +4170,19 @@
         <v>3342</v>
       </c>
       <c r="L66" s="6">
-        <f t="shared" si="1"/>
+        <f>(H66/D66)*100</f>
         <v>51.777644229775674</v>
       </c>
       <c r="M66" s="7">
-        <f t="shared" si="2"/>
+        <f>(I66/E66)*100</f>
         <v>99.958471760797337</v>
       </c>
       <c r="N66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.934399343993448</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>363.6561479869423</v>
       </c>
     </row>
@@ -4220,19 +4221,19 @@
         <v>3383</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="1"/>
+        <f>(H67/D67)*100</f>
         <v>49.087169007903455</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" si="2"/>
+        <f>(I67/E67)*100</f>
         <v>99.955207166853299</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99.916396697669569</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>432.05619412515961</v>
       </c>
     </row>
@@ -4271,19 +4272,19 @@
         <v>3173</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" ref="L68:L92" si="5">(H68/D68)*100</f>
+        <f t="shared" ref="L68:L92" si="2">(H68/D68)*100</f>
         <v>57.237063889722691</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" ref="M68:M92" si="6">(I68/E68)*100</f>
+        <f t="shared" ref="M68:M92" si="3">(I68/E68)*100</f>
         <v>99.96104212320428</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" ref="N68:N92" si="7">(J68/F68)*100</f>
+        <f t="shared" ref="N68:N92" si="4">(J68/F68)*100</f>
         <v>99.944091131455721</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" ref="O68:O92" si="8">(K68/G68)*100</f>
+        <f t="shared" ref="O68:O92" si="5">(K68/G68)*100</f>
         <v>300.18921475875118</v>
       </c>
     </row>
@@ -4322,19 +4323,19 @@
         <v>2932</v>
       </c>
       <c r="L69" s="6">
+        <f t="shared" si="2"/>
+        <v>56.939549674180448</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="3"/>
+        <v>99.946333937076531</v>
+      </c>
+      <c r="N69" s="7">
+        <f t="shared" si="4"/>
+        <v>99.861303744798889</v>
+      </c>
+      <c r="O69" s="8">
         <f t="shared" si="5"/>
-        <v>56.939549674180448</v>
-      </c>
-      <c r="M69" s="7">
-        <f t="shared" si="6"/>
-        <v>99.946333937076531</v>
-      </c>
-      <c r="N69" s="7">
-        <f t="shared" si="7"/>
-        <v>99.861303744798889</v>
-      </c>
-      <c r="O69" s="8">
-        <f t="shared" si="8"/>
         <v>292.03187250996018</v>
       </c>
     </row>
@@ -4373,19 +4374,19 @@
         <v>2970</v>
       </c>
       <c r="L70" s="6">
+        <f t="shared" si="2"/>
+        <v>55.898287754440901</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="3"/>
+        <v>99.958289885297177</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="4"/>
+        <v>99.934237566789974</v>
+      </c>
+      <c r="O70" s="8">
         <f t="shared" si="5"/>
-        <v>55.898287754440901</v>
-      </c>
-      <c r="M70" s="7">
-        <f t="shared" si="6"/>
-        <v>99.958289885297177</v>
-      </c>
-      <c r="N70" s="7">
-        <f t="shared" si="7"/>
-        <v>99.934237566789974</v>
-      </c>
-      <c r="O70" s="8">
-        <f t="shared" si="8"/>
         <v>337.88395904436862</v>
       </c>
     </row>
@@ -4424,19 +4425,19 @@
         <v>2741</v>
       </c>
       <c r="L71" s="6">
+        <f t="shared" si="2"/>
+        <v>53.788930335161723</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="3"/>
+        <v>99.956111476848804</v>
+      </c>
+      <c r="N71" s="7">
+        <f t="shared" si="4"/>
+        <v>99.923305531588539</v>
+      </c>
+      <c r="O71" s="8">
         <f t="shared" si="5"/>
-        <v>53.788930335161723</v>
-      </c>
-      <c r="M71" s="7">
-        <f t="shared" si="6"/>
-        <v>99.956111476848804</v>
-      </c>
-      <c r="N71" s="7">
-        <f t="shared" si="7"/>
-        <v>99.923305531588539</v>
-      </c>
-      <c r="O71" s="8">
-        <f t="shared" si="8"/>
         <v>394.95677233429393</v>
       </c>
     </row>
@@ -4475,19 +4476,19 @@
         <v>3049</v>
       </c>
       <c r="L72" s="6">
+        <f t="shared" si="2"/>
+        <v>57.038921303543475</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="3"/>
+        <v>99.957703288569306</v>
+      </c>
+      <c r="N72" s="7">
+        <f t="shared" si="4"/>
+        <v>99.931839481980063</v>
+      </c>
+      <c r="O72" s="8">
         <f t="shared" si="5"/>
-        <v>57.038921303543475</v>
-      </c>
-      <c r="M72" s="7">
-        <f t="shared" si="6"/>
-        <v>99.957703288569306</v>
-      </c>
-      <c r="N72" s="7">
-        <f t="shared" si="7"/>
-        <v>99.931839481980063</v>
-      </c>
-      <c r="O72" s="8">
-        <f t="shared" si="8"/>
         <v>300.98716683119449</v>
       </c>
     </row>
@@ -4526,19 +4527,19 @@
         <v>2935</v>
       </c>
       <c r="L73" s="6">
+        <f t="shared" si="2"/>
+        <v>61.058668706683783</v>
+      </c>
+      <c r="M73" s="7">
+        <f t="shared" si="3"/>
+        <v>99.956448364091671</v>
+      </c>
+      <c r="N73" s="7">
+        <f t="shared" si="4"/>
+        <v>99.926853799030809</v>
+      </c>
+      <c r="O73" s="8">
         <f t="shared" si="5"/>
-        <v>61.058668706683783</v>
-      </c>
-      <c r="M73" s="7">
-        <f t="shared" si="6"/>
-        <v>99.956448364091671</v>
-      </c>
-      <c r="N73" s="7">
-        <f t="shared" si="7"/>
-        <v>99.926853799030809</v>
-      </c>
-      <c r="O73" s="8">
-        <f t="shared" si="8"/>
         <v>256.10820244328096</v>
       </c>
     </row>
@@ -4577,19 +4578,19 @@
         <v>2995</v>
       </c>
       <c r="L74" s="22">
+        <f t="shared" si="2"/>
+        <v>53.460559027222956</v>
+      </c>
+      <c r="M74" s="23">
+        <f t="shared" si="3"/>
+        <v>99.958813838550242</v>
+      </c>
+      <c r="N74" s="23">
+        <f t="shared" si="4"/>
+        <v>99.936563317738475</v>
+      </c>
+      <c r="O74" s="24">
         <f t="shared" si="5"/>
-        <v>53.460559027222956</v>
-      </c>
-      <c r="M74" s="23">
-        <f t="shared" si="6"/>
-        <v>99.958813838550242</v>
-      </c>
-      <c r="N74" s="23">
-        <f t="shared" si="7"/>
-        <v>99.936563317738475</v>
-      </c>
-      <c r="O74" s="24">
-        <f t="shared" si="8"/>
         <v>373.90761548064921</v>
       </c>
     </row>
@@ -4628,19 +4629,19 @@
         <v>2478</v>
       </c>
       <c r="L75" s="14">
+        <f t="shared" si="2"/>
+        <v>41.4173273964213</v>
+      </c>
+      <c r="M75" s="15">
+        <f t="shared" si="3"/>
+        <v>99.960425426663363</v>
+      </c>
+      <c r="N75" s="15">
+        <f t="shared" si="4"/>
+        <v>99.939993999399945</v>
+      </c>
+      <c r="O75" s="16">
         <f t="shared" si="5"/>
-        <v>41.4173273964213</v>
-      </c>
-      <c r="M75" s="15">
-        <f t="shared" si="6"/>
-        <v>99.960425426663363</v>
-      </c>
-      <c r="N75" s="15">
-        <f t="shared" si="7"/>
-        <v>99.939993999399945</v>
-      </c>
-      <c r="O75" s="16">
-        <f t="shared" si="8"/>
         <v>1028.215767634855</v>
       </c>
     </row>
@@ -4679,19 +4680,19 @@
         <v>3478</v>
       </c>
       <c r="L76" s="6">
+        <f t="shared" si="2"/>
+        <v>48.822302880531318</v>
+      </c>
+      <c r="M76" s="7">
+        <f t="shared" si="3"/>
+        <v>99.959730192288333</v>
+      </c>
+      <c r="N76" s="7">
+        <f t="shared" si="4"/>
+        <v>99.937989303154794</v>
+      </c>
+      <c r="O76" s="8">
         <f t="shared" si="5"/>
-        <v>48.822302880531318</v>
-      </c>
-      <c r="M76" s="7">
-        <f t="shared" si="6"/>
-        <v>99.959730192288333</v>
-      </c>
-      <c r="N76" s="7">
-        <f t="shared" si="7"/>
-        <v>99.937989303154794</v>
-      </c>
-      <c r="O76" s="8">
-        <f t="shared" si="8"/>
         <v>473.841961852861</v>
       </c>
     </row>
@@ -4730,19 +4731,19 @@
         <v>3181</v>
       </c>
       <c r="L77" s="6">
+        <f t="shared" si="2"/>
+        <v>48.754853713968913</v>
+      </c>
+      <c r="M77" s="7">
+        <f t="shared" si="3"/>
+        <v>99.959202407057973</v>
+      </c>
+      <c r="N77" s="7">
+        <f t="shared" si="4"/>
+        <v>99.936122644522513</v>
+      </c>
+      <c r="O77" s="8">
         <f t="shared" si="5"/>
-        <v>48.754853713968913</v>
-      </c>
-      <c r="M77" s="7">
-        <f t="shared" si="6"/>
-        <v>99.959202407057973</v>
-      </c>
-      <c r="N77" s="7">
-        <f t="shared" si="7"/>
-        <v>99.936122644522513</v>
-      </c>
-      <c r="O77" s="8">
-        <f t="shared" si="8"/>
         <v>544.69178082191775</v>
       </c>
     </row>
@@ -4781,19 +4782,19 @@
         <v>2905</v>
       </c>
       <c r="L78" s="6">
+        <f t="shared" si="2"/>
+        <v>51.964991194304957</v>
+      </c>
+      <c r="M78" s="7">
+        <f t="shared" si="3"/>
+        <v>99.961367587405832</v>
+      </c>
+      <c r="N78" s="7">
+        <f t="shared" si="4"/>
+        <v>99.945455785095788</v>
+      </c>
+      <c r="O78" s="8">
         <f t="shared" si="5"/>
-        <v>51.964991194304957</v>
-      </c>
-      <c r="M78" s="7">
-        <f t="shared" si="6"/>
-        <v>99.961367587405832</v>
-      </c>
-      <c r="N78" s="7">
-        <f t="shared" si="7"/>
-        <v>99.945455785095788</v>
-      </c>
-      <c r="O78" s="8">
-        <f t="shared" si="8"/>
         <v>494.88926746166948</v>
       </c>
     </row>
@@ -4832,19 +4833,19 @@
         <v>3059</v>
       </c>
       <c r="L79" s="6">
+        <f t="shared" si="2"/>
+        <v>49.525318189288384</v>
+      </c>
+      <c r="M79" s="7">
+        <f t="shared" si="3"/>
+        <v>99.957872564507639</v>
+      </c>
+      <c r="N79" s="7">
+        <f t="shared" si="4"/>
+        <v>99.929378531073439</v>
+      </c>
+      <c r="O79" s="8">
         <f t="shared" si="5"/>
-        <v>49.525318189288384</v>
-      </c>
-      <c r="M79" s="7">
-        <f t="shared" si="6"/>
-        <v>99.957872564507639</v>
-      </c>
-      <c r="N79" s="7">
-        <f t="shared" si="7"/>
-        <v>99.929378531073439</v>
-      </c>
-      <c r="O79" s="8">
-        <f t="shared" si="8"/>
         <v>525.60137457044675</v>
       </c>
     </row>
@@ -4883,19 +4884,19 @@
         <v>3094</v>
       </c>
       <c r="L80" s="6">
+        <f t="shared" si="2"/>
+        <v>51.429375336343696</v>
+      </c>
+      <c r="M80" s="7">
+        <f t="shared" si="3"/>
+        <v>99.954987902998923</v>
+      </c>
+      <c r="N80" s="7">
+        <f t="shared" si="4"/>
+        <v>99.915549456349623</v>
+      </c>
+      <c r="O80" s="8">
         <f t="shared" si="5"/>
-        <v>51.429375336343696</v>
-      </c>
-      <c r="M80" s="7">
-        <f t="shared" si="6"/>
-        <v>99.954987902998923</v>
-      </c>
-      <c r="N80" s="7">
-        <f t="shared" si="7"/>
-        <v>99.915549456349623</v>
-      </c>
-      <c r="O80" s="8">
-        <f t="shared" si="8"/>
         <v>431.52022315202225</v>
       </c>
     </row>
@@ -4934,19 +4935,19 @@
         <v>2920</v>
       </c>
       <c r="L81" s="6">
+        <f t="shared" si="2"/>
+        <v>55.568000863674392</v>
+      </c>
+      <c r="M81" s="7">
+        <f t="shared" si="3"/>
+        <v>99.961601228760671</v>
+      </c>
+      <c r="N81" s="7">
+        <f t="shared" si="4"/>
+        <v>99.946018893387318</v>
+      </c>
+      <c r="O81" s="8">
         <f t="shared" si="5"/>
-        <v>55.568000863674392</v>
-      </c>
-      <c r="M81" s="7">
-        <f t="shared" si="6"/>
-        <v>99.961601228760671</v>
-      </c>
-      <c r="N81" s="7">
-        <f t="shared" si="7"/>
-        <v>99.946018893387318</v>
-      </c>
-      <c r="O81" s="8">
-        <f t="shared" si="8"/>
         <v>380.20833333333337</v>
       </c>
     </row>
@@ -4985,19 +4986,19 @@
         <v>3062</v>
       </c>
       <c r="L82" s="6">
+        <f t="shared" si="2"/>
+        <v>57.654328020131416</v>
+      </c>
+      <c r="M82" s="7">
+        <f t="shared" si="3"/>
+        <v>99.960515275652725</v>
+      </c>
+      <c r="N82" s="7">
+        <f t="shared" si="4"/>
+        <v>99.941323162681527</v>
+      </c>
+      <c r="O82" s="8">
         <f t="shared" si="5"/>
-        <v>57.654328020131416</v>
-      </c>
-      <c r="M82" s="7">
-        <f t="shared" si="6"/>
-        <v>99.960515275652725</v>
-      </c>
-      <c r="N82" s="7">
-        <f t="shared" si="7"/>
-        <v>99.941323162681527</v>
-      </c>
-      <c r="O82" s="8">
-        <f t="shared" si="8"/>
         <v>319.95820271682345</v>
       </c>
     </row>
@@ -5036,19 +5037,19 @@
         <v>2154</v>
       </c>
       <c r="L83" s="6">
+        <f t="shared" si="2"/>
+        <v>49.008094399080278</v>
+      </c>
+      <c r="M83" s="7">
+        <f t="shared" si="3"/>
+        <v>99.955013214868131</v>
+      </c>
+      <c r="N83" s="7">
+        <f t="shared" si="4"/>
+        <v>99.919142914897918</v>
+      </c>
+      <c r="O83" s="8">
         <f t="shared" si="5"/>
-        <v>49.008094399080278</v>
-      </c>
-      <c r="M83" s="7">
-        <f t="shared" si="6"/>
-        <v>99.955013214868131</v>
-      </c>
-      <c r="N83" s="7">
-        <f t="shared" si="7"/>
-        <v>99.919142914897918</v>
-      </c>
-      <c r="O83" s="8">
-        <f t="shared" si="8"/>
         <v>679.49526813880129</v>
       </c>
     </row>
@@ -5087,19 +5088,19 @@
         <v>2661</v>
       </c>
       <c r="L84" s="6">
+        <f t="shared" si="2"/>
+        <v>56.193681368793548</v>
+      </c>
+      <c r="M84" s="7">
+        <f t="shared" si="3"/>
+        <v>99.956113884469801</v>
+      </c>
+      <c r="N84" s="7">
+        <f t="shared" si="4"/>
+        <v>99.922201692113205</v>
+      </c>
+      <c r="O84" s="8">
         <f t="shared" si="5"/>
-        <v>56.193681368793548</v>
-      </c>
-      <c r="M84" s="7">
-        <f t="shared" si="6"/>
-        <v>99.956113884469801</v>
-      </c>
-      <c r="N84" s="7">
-        <f t="shared" si="7"/>
-        <v>99.922201692113205</v>
-      </c>
-      <c r="O84" s="8">
-        <f t="shared" si="8"/>
         <v>372.68907563025209</v>
       </c>
     </row>
@@ -5138,19 +5139,19 @@
         <v>2920</v>
       </c>
       <c r="L85" s="6">
+        <f t="shared" si="2"/>
+        <v>49.522523562906969</v>
+      </c>
+      <c r="M85" s="7">
+        <f t="shared" si="3"/>
+        <v>99.960749681091158</v>
+      </c>
+      <c r="N85" s="7">
+        <f t="shared" si="4"/>
+        <v>99.94269340974212</v>
+      </c>
+      <c r="O85" s="8">
         <f t="shared" si="5"/>
-        <v>49.522523562906969</v>
-      </c>
-      <c r="M85" s="7">
-        <f t="shared" si="6"/>
-        <v>99.960749681091158</v>
-      </c>
-      <c r="N85" s="7">
-        <f t="shared" si="7"/>
-        <v>99.94269340974212</v>
-      </c>
-      <c r="O85" s="8">
-        <f t="shared" si="8"/>
         <v>585.17034068136263</v>
       </c>
     </row>
@@ -5189,19 +5190,19 @@
         <v>2950</v>
       </c>
       <c r="L86" s="6">
+        <f t="shared" si="2"/>
+        <v>51.705095626356531</v>
+      </c>
+      <c r="M86" s="7">
+        <f t="shared" si="3"/>
+        <v>99.960668633235002</v>
+      </c>
+      <c r="N86" s="7">
+        <f t="shared" si="4"/>
+        <v>99.94183087326401</v>
+      </c>
+      <c r="O86" s="8">
         <f t="shared" si="5"/>
-        <v>51.705095626356531</v>
-      </c>
-      <c r="M86" s="7">
-        <f t="shared" si="6"/>
-        <v>99.960668633235002</v>
-      </c>
-      <c r="N86" s="7">
-        <f t="shared" si="7"/>
-        <v>99.94183087326401</v>
-      </c>
-      <c r="O86" s="8">
-        <f t="shared" si="8"/>
         <v>494.13735343383581</v>
       </c>
     </row>
@@ -5240,19 +5241,19 @@
         <v>2885</v>
       </c>
       <c r="L87" s="6">
+        <f t="shared" si="2"/>
+        <v>57.445759136777056</v>
+      </c>
+      <c r="M87" s="7">
+        <f t="shared" si="3"/>
+        <v>99.958156807364404</v>
+      </c>
+      <c r="N87" s="7">
+        <f t="shared" si="4"/>
+        <v>99.93166481592209</v>
+      </c>
+      <c r="O87" s="8">
         <f t="shared" si="5"/>
-        <v>57.445759136777056</v>
-      </c>
-      <c r="M87" s="7">
-        <f t="shared" si="6"/>
-        <v>99.958156807364404</v>
-      </c>
-      <c r="N87" s="7">
-        <f t="shared" si="7"/>
-        <v>99.93166481592209</v>
-      </c>
-      <c r="O87" s="8">
-        <f t="shared" si="8"/>
         <v>330.46964490263457</v>
       </c>
     </row>
@@ -5291,19 +5292,19 @@
         <v>2778</v>
       </c>
       <c r="L88" s="6">
+        <f t="shared" si="2"/>
+        <v>54.221807399373589</v>
+      </c>
+      <c r="M88" s="7">
+        <f t="shared" si="3"/>
+        <v>99.957785868819585</v>
+      </c>
+      <c r="N88" s="7">
+        <f t="shared" si="4"/>
+        <v>99.930951147937165</v>
+      </c>
+      <c r="O88" s="8">
         <f t="shared" si="5"/>
-        <v>54.221807399373589</v>
-      </c>
-      <c r="M88" s="7">
-        <f t="shared" si="6"/>
-        <v>99.957785868819585</v>
-      </c>
-      <c r="N88" s="7">
-        <f t="shared" si="7"/>
-        <v>99.930951147937165</v>
-      </c>
-      <c r="O88" s="8">
-        <f t="shared" si="8"/>
         <v>400.28818443804033</v>
       </c>
     </row>
@@ -5342,19 +5343,19 @@
         <v>2932</v>
       </c>
       <c r="L89" s="6">
+        <f t="shared" si="2"/>
+        <v>53.697107372943698</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" si="3"/>
+        <v>99.960350894582945</v>
+      </c>
+      <c r="N89" s="7">
+        <f t="shared" si="4"/>
+        <v>99.941999564996735</v>
+      </c>
+      <c r="O89" s="8">
         <f t="shared" si="5"/>
-        <v>53.697107372943698</v>
-      </c>
-      <c r="M89" s="7">
-        <f t="shared" si="6"/>
-        <v>99.960350894582945</v>
-      </c>
-      <c r="N89" s="7">
-        <f t="shared" si="7"/>
-        <v>99.941999564996735</v>
-      </c>
-      <c r="O89" s="8">
-        <f t="shared" si="8"/>
         <v>423.08802308802302</v>
       </c>
     </row>
@@ -5393,19 +5394,19 @@
         <v>2962</v>
       </c>
       <c r="L90" s="6">
+        <f t="shared" si="2"/>
+        <v>59.686718218383305</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="3"/>
+        <v>99.958900590804006</v>
+      </c>
+      <c r="N90" s="7">
+        <f t="shared" si="4"/>
+        <v>99.936356404136845</v>
+      </c>
+      <c r="O90" s="8">
         <f t="shared" si="5"/>
-        <v>59.686718218383305</v>
-      </c>
-      <c r="M90" s="7">
-        <f t="shared" si="6"/>
-        <v>99.958900590804006</v>
-      </c>
-      <c r="N90" s="7">
-        <f t="shared" si="7"/>
-        <v>99.936356404136845</v>
-      </c>
-      <c r="O90" s="8">
-        <f t="shared" si="8"/>
         <v>288.69395711500971</v>
       </c>
     </row>
@@ -5444,19 +5445,19 @@
         <v>2979</v>
       </c>
       <c r="L91" s="6">
+        <f t="shared" si="2"/>
+        <v>53.634699753050661</v>
+      </c>
+      <c r="M91" s="7">
+        <f t="shared" si="3"/>
+        <v>99.958562105045061</v>
+      </c>
+      <c r="N91" s="7">
+        <f t="shared" si="4"/>
+        <v>99.933867901132515</v>
+      </c>
+      <c r="O91" s="8">
         <f t="shared" si="5"/>
-        <v>53.634699753050661</v>
-      </c>
-      <c r="M91" s="7">
-        <f t="shared" si="6"/>
-        <v>99.958562105045061</v>
-      </c>
-      <c r="N91" s="7">
-        <f t="shared" si="7"/>
-        <v>99.933867901132515</v>
-      </c>
-      <c r="O91" s="8">
-        <f t="shared" si="8"/>
         <v>386.38132295719845</v>
       </c>
     </row>
@@ -5495,19 +5496,19 @@
         <v>2841</v>
       </c>
       <c r="L92" s="22">
+        <f t="shared" si="2"/>
+        <v>56.393004576146431</v>
+      </c>
+      <c r="M92" s="23">
+        <f t="shared" si="3"/>
+        <v>99.954110021224125</v>
+      </c>
+      <c r="N92" s="23">
+        <f t="shared" si="4"/>
+        <v>99.90919409761635</v>
+      </c>
+      <c r="O92" s="24">
         <f t="shared" si="5"/>
-        <v>56.393004576146431</v>
-      </c>
-      <c r="M92" s="23">
-        <f t="shared" si="6"/>
-        <v>99.954110021224125</v>
-      </c>
-      <c r="N92" s="23">
-        <f t="shared" si="7"/>
-        <v>99.90919409761635</v>
-      </c>
-      <c r="O92" s="24">
-        <f t="shared" si="8"/>
         <v>347.31051344743275</v>
       </c>
     </row>
@@ -5532,56 +5533,56 @@
         <v>105</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" ref="D96:L96" si="9">AVERAGE(D3:D92)</f>
+        <f>AVERAGE(D3:D92)</f>
         <v>1051561.7</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(E3:E92)</f>
         <v>18072.099999999999</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(F3:F92)</f>
         <v>10534.022222222222</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(G3:G92)</f>
         <v>733.61111111111109</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(H3:H92)</f>
         <v>560511.61111111112</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(I3:I92)</f>
         <v>18064.099999999999</v>
       </c>
       <c r="J96" s="4">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(J3:J92)</f>
         <v>10526.022222222222</v>
       </c>
       <c r="K96" s="4">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(K3:K92)</f>
         <v>2756.8444444444444</v>
       </c>
       <c r="L96" s="6">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(L3:L92)</f>
         <v>53.800793449205571</v>
       </c>
       <c r="M96" s="7">
-        <f t="shared" ref="M96:O96" si="10">AVERAGE(M3:M92)</f>
+        <f t="shared" ref="M96:O96" si="6">AVERAGE(M3:M92)</f>
         <v>99.955077066617662</v>
       </c>
       <c r="N96" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>99.915394699162121</v>
       </c>
       <c r="O96" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>426.3182900288291</v>
       </c>
       <c r="P96" s="3"/>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>107</v>
       </c>
@@ -5589,49 +5590,41 @@
         <f>MIN(D3:D92)</f>
         <v>90912</v>
       </c>
-      <c r="E98" s="28">
-        <f t="shared" ref="E98:P98" si="11">MIN(E3:E92)</f>
+      <c r="E98" s="4">
+        <f>MIN(E3:E92)</f>
         <v>8017</v>
       </c>
-      <c r="F98" s="28">
-        <f t="shared" si="11"/>
+      <c r="F98" s="4">
+        <f>MIN(F3:F92)</f>
         <v>1444</v>
       </c>
-      <c r="G98" s="28">
-        <f t="shared" si="11"/>
+      <c r="G98" s="4">
+        <f>MIN(G3:G92)</f>
         <v>144</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="11"/>
+        <f>MIN(H3:H92)</f>
         <v>44761</v>
       </c>
-      <c r="I98" s="28">
-        <f t="shared" si="11"/>
+      <c r="I98" s="4">
+        <f>MIN(I3:I92)</f>
         <v>8009</v>
       </c>
-      <c r="J98" s="28">
-        <f t="shared" si="11"/>
+      <c r="J98" s="4">
+        <f>MIN(J3:J92)</f>
         <v>1436</v>
       </c>
-      <c r="K98" s="28">
-        <f t="shared" si="11"/>
+      <c r="K98" s="4">
+        <f>MIN(K3:K92)</f>
         <v>1058</v>
       </c>
       <c r="L98" s="3"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="28"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>108</v>
       </c>
@@ -5639,42 +5632,92 @@
         <f>MAX(D3:D92)</f>
         <v>2416520</v>
       </c>
-      <c r="E100" s="28">
-        <f t="shared" ref="E100:P100" si="12">MAX(E3:E92)</f>
+      <c r="E100" s="4">
+        <f>MAX(E3:E92)</f>
         <v>20834</v>
       </c>
-      <c r="F100" s="28">
-        <f t="shared" si="12"/>
+      <c r="F100" s="4">
+        <f>MAX(F3:F92)</f>
         <v>14820</v>
       </c>
-      <c r="G100" s="28">
-        <f t="shared" si="12"/>
+      <c r="G100" s="4">
+        <f>MAX(G3:G92)</f>
         <v>1486</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="12"/>
+        <f>MAX(H3:H92)</f>
         <v>1152956</v>
       </c>
-      <c r="I100" s="28">
-        <f t="shared" si="12"/>
+      <c r="I100" s="4">
+        <f>MAX(I3:I92)</f>
         <v>20826</v>
       </c>
-      <c r="J100" s="28">
-        <f t="shared" si="12"/>
+      <c r="J100" s="4">
+        <f>MAX(J3:J92)</f>
         <v>14812</v>
       </c>
-      <c r="K100" s="28">
-        <f t="shared" si="12"/>
+      <c r="K100" s="4">
+        <f>MAX(K3:K92)</f>
         <v>3478</v>
       </c>
       <c r="L100" s="3"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="Q105" s="29"/>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="1">
+        <f>_xlfn.STDEV.S(D3:D92)</f>
+        <v>431985.89343388908</v>
+      </c>
+      <c r="E102" s="1">
+        <f>_xlfn.STDEV.S(E3:E92)</f>
+        <v>1832.2722005351484</v>
+      </c>
+      <c r="F102" s="1">
+        <f>_xlfn.STDEV.S(F3:F92)</f>
+        <v>2391.2726007684719</v>
+      </c>
+      <c r="G102" s="1">
+        <f>_xlfn.STDEV.S(G3:G92)</f>
+        <v>264.51497671939848</v>
+      </c>
+      <c r="H102" s="1">
+        <f>_xlfn.STDEV.S(H3:H92)</f>
+        <v>220266.94382027851</v>
+      </c>
+      <c r="I102" s="1">
+        <f>_xlfn.STDEV.S(I3:I92)</f>
+        <v>1832.2722005351484</v>
+      </c>
+      <c r="J102" s="1">
+        <f>_xlfn.STDEV.S(J3:J92)</f>
+        <v>2391.2726007684719</v>
+      </c>
+      <c r="K102" s="1">
+        <f>_xlfn.STDEV.S(K3:K92)</f>
+        <v>403.06251532600243</v>
+      </c>
+      <c r="L102" s="1">
+        <f>_xlfn.STDEV.S(L3:L92)</f>
+        <v>4.6068383820126462</v>
+      </c>
+      <c r="M102" s="1">
+        <f>_xlfn.STDEV.S(M3:M92)</f>
+        <v>7.0118671460955547E-3</v>
+      </c>
+      <c r="N102" s="1">
+        <f>_xlfn.STDEV.S(N3:N92)</f>
+        <v>5.4249782225130549E-2</v>
+      </c>
+      <c r="O102" s="1">
+        <f>_xlfn.STDEV.S(O3:O92)</f>
+        <v>160.94576203147324</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
